--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_95.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_95.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,618 +488,660 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_192</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1714285714285714</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min', 'A#:min/C#']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4017857142857143</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(25.62, 33.76)]</t>
+          <t>[['D:maj', 'A:7', 'D:maj'], ['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(46.06, 53.66)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:01:06.920000', '0:01:08.180000'), ('0:01:05.200000', '0:01:07.500000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:00.580000', '0:00:09.400000'), ('0:00:58.080000', '0:01:05.660000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3541666666666666</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
-        </is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_165</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.06719457013574662</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C', 'F/5', 'C']]</t>
+          <t>[['F:maj', 'A#:maj/F', 'F:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(57.48, 64.58)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(5.121, 12.601)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>[('0:00:17.340000', '0:00:24.400000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:03.599751', '0:00:06.705328')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_134</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_127</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.4714285714285714</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
-        </is>
+          <t>isophonics_128</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_222</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1821862348178138</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G']]</t>
+          <t>[['C', 'A:min', 'C', 'A:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(142.14, 147.86)]</t>
+          <t>[['D', 'B:min', 'D', 'B:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(1.014823, 13.657911)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:35.689530', '0:00:50.062244')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:08.587755', '0:00:19.396643')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_12</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1305555555555555</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D/5', 'A/3', 'D'], ['A', 'D', 'D'], ['G', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_146</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_58</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D'], ['A', 'D', 'D'], ['G', 'A', 'D']]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(21.740249, 26.767369), (10.8617, 16.701519), (9.979342, 15.029682)]</t>
+          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(6.536, 9.774), (7.605, 11.853), (44.836, 49.319)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:01:21.100000', '0:01:27.580000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:37.960000', '0:00:44.800000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_75</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_191</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2077922077922078</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
-        </is>
+          <t>isophonics_112</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2291666666666667</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>[['A', 'D/5', 'A', 'D/5', 'A']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(45.72, 49.9)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(16.26, 19.34)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:00.421247', '0:00:07.703786')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:01:51.920000', '0:01:55.980000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_101</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2848837209302326</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_103</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>jaah_14</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1439393939393939</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:(3,5,b7,b9)', 'G:min']]</t>
+          <t>[['G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(30.8, 45.3)]</t>
+          <t>[['Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(55.26, 61.0)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:08.600000', '0:00:11.320000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:01:20.080000', '0:01:27.620000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3253968253968254</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D', 'D', 'G/5', 'D', 'G/5', 'D'], ['D', 'G/5', 'D', 'G/5', 'D', 'G']]</t>
-        </is>
+          <t>isophonics_251</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5428571428571429</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D', 'D', 'G', 'D', 'G', 'D'], ['D', 'G', 'D', 'G', 'D', 'G']]</t>
+          <t>[['D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(35.013, 44.614), (20.432, 30.105)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(8.399, 16.165), (21.513, 28.197)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:07.525011', '0:00:14.746417')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:02:12.300000', '0:02:17.480000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_61</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1174089068825911</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'C#', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_150</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_37</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(24.387324, 27.452358), (3.744784, 6.774988)]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(74.8, 81.06), (13.42, 19.5)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:00.780000', '0:00:09.740000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:46.900000', '0:00:59.100000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_103</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_261</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.39375</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(0.6, 40.54)]</t>
+          <t>[['G/3', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(1.46, 39.82)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:02:22.140000', '0:02:26.800000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:00:13.079206', '0:00:17.500916')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:2B4Y9u4ERAFiMo13XPJyGP</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1217948717948718</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_160</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4583333333333333</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(12.14, 20.02)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(7.4, 12.02)]</t>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:01:20.420000', '0:01:24.640000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2373626373626374</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(60.12, 61.36), (58.4, 60.68)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(68.64, 77.38), (16.82, 23.18)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:09.240000', '0:00:28.040000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:07.020000', '0:00:24.780000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>jaah_69</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_1</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1675675675675676</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Eb', 'Bb:7', 'Bb:7', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_34</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_121</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb', 'Bb:7', 'Bb:7', 'Eb']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(33.48, 45.59)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(21.12, 31.04)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:14.160000', '0:01:35.780000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:17.900000', '0:01:52.420000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_31</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.106875</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'C/7'], ['D:7', 'G:7', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_123</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_210</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C'], ['D:7', 'G:7', 'C']]</t>
+          <t>[['F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:maj/F', 'F:min', 'C:7/F', 'F:min', 'C:7/F', 'F:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(12.851927, 16.810929), (18.783807, 24.845034)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(6.04, 11.44), (58.67, 64.13)]</t>
+          <t>[('0:00:05.840000', '0:01:44.720000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+          <t>[('0:00:07.140000', '0:01:47.600000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_39</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_265</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1308485329103886</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_49</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_120</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D', 'E', 'A']]</t>
+          <t>[['A:min', 'E:7/B', 'A:min/C', 'A:maj/C#', 'D:min', 'B:hdim7', 'A:min', 'A#:maj', 'F:maj/A', 'E:7', 'F:maj'], ['A:7/G', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min/F', 'A:maj/E', 'D:min', 'A:min/E']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(2.557446, 6.319079)]</t>
+          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D', 'D#:min', 'C:hdim7', 'A#:min', 'B:maj', 'F#:maj/A#', 'F:7', 'F#:maj'], ['A#:7/G#', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min', 'A#:min/F']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(5.130361, 10.478662)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:00.340000', '0:00:08.840000'), ('0:01:11.800000', '0:01:19.080000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:02.600000', '0:00:10.700000'), ('0:01:12.880000', '0:01:20.600000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_101</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C#', 'F#/5', 'C#']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(31.46941, 118.925813)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(62.48, 64.92)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:02:28.280000', '0:02:33.260000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:02:32.440000', '0:02:37.160000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_35</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_131</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(22.36, 25.24)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(57.42, 60.32)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
